--- a/Documentation/Edwards modelling/IFB299 workpage.xlsx
+++ b/Documentation/Edwards modelling/IFB299 workpage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -150,9 +150,6 @@
     <t xml:space="preserve">30 mins </t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>6th September</t>
   </si>
   <si>
@@ -162,23 +159,156 @@
     <t xml:space="preserve">Application map </t>
   </si>
   <si>
+    <t>Progress measurement/ Burndown</t>
+  </si>
+  <si>
+    <t>6th september</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2 </t>
+  </si>
+  <si>
+    <t>6th Sempember</t>
+  </si>
+  <si>
+    <t>7th September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Connector Modification </t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created Terminal Application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
+    <t>Databindings setup</t>
+  </si>
+  <si>
+    <t>Timetable Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7th September </t>
+  </si>
+  <si>
+    <t>9th September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th September </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Loading </t>
+  </si>
+  <si>
+    <t>10th September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified Site Map </t>
+  </si>
+  <si>
+    <t>Add Instruments Feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Class to Check Logins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Hour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16th September </t>
+  </si>
+  <si>
+    <t>18th September</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 hour 30 mins</t>
+  </si>
+  <si>
+    <t>1 hour 30 mins</t>
+  </si>
+  <si>
+    <t>Mutli- Threaded Timetable</t>
+  </si>
+  <si>
+    <t>Contracts/ Instruments Tab</t>
+  </si>
+  <si>
+    <t>19th September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rework of code </t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Booking Window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour 30 mins </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ongoing </t>
   </si>
   <si>
-    <t>Progress measurement/ Burndown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 hours 40 mins </t>
+    <t xml:space="preserve">2 hours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour </t>
+  </si>
+  <si>
+    <t>17th September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gather Resources For Design </t>
+  </si>
+  <si>
+    <t>20th September</t>
+  </si>
+  <si>
+    <t>Burndown Charts</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>UI Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total 21 hours </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,13 +331,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -774,13 +928,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -794,28 +948,325 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
